--- a/data_raw/UTF-8DataSet2.csv.xlsx
+++ b/data_raw/UTF-8DataSet2.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanmwaters/Documents/Cherry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atorres\polybox - Agostina Torres (agostina.torres@usys.ethz.ch)@polybox.ethz.ch\ongoing projects\BeePriorityEffects\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C008B86-3C72-E746-B40D-E51C7D315F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B38D09-839D-4592-9076-C501730D90B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31940" yWindow="11940" windowWidth="29400" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,17 +579,22 @@
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="20" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.1796875" customWidth="1"/>
+    <col min="15" max="20" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>41157</v>
       </c>
@@ -714,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>41157</v>
       </c>
@@ -777,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>41157</v>
       </c>
@@ -840,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>41157</v>
       </c>
@@ -903,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>41157</v>
       </c>
@@ -966,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>41157</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>41158</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>41158</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>41158</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>41158</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>41158</v>
       </c>
@@ -1343,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>41158</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>41159</v>
       </c>
@@ -1469,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>41159</v>
       </c>
@@ -1528,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>41159</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>41159</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>41159</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>41159</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>41160</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>41160</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>41160</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>41160</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>41160</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>41161</v>
       </c>
@@ -2157,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>41161</v>
       </c>
@@ -2220,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>41161</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>41161</v>
       </c>
@@ -2346,7 +2351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>41161</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>41161</v>
       </c>
@@ -2472,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>41161</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>41163</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>41163</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>41163</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>41163</v>
       </c>
@@ -2785,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>41163</v>
       </c>
@@ -2847,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>41163</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>41164</v>
       </c>
@@ -2972,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>41164</v>
       </c>
@@ -3035,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>41164</v>
       </c>
@@ -3098,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>41164</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41164</v>
       </c>
@@ -3224,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41164</v>
       </c>
@@ -3287,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>41165</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>41165</v>
       </c>
@@ -3413,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>41165</v>
       </c>
@@ -3476,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>41165</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>41165</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>41165</v>
       </c>
@@ -3665,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>41166</v>
       </c>
@@ -3728,7 +3733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>41166</v>
       </c>
@@ -3791,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>41166</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>41166</v>
       </c>
@@ -3917,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>41166</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>41166</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>41167</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>41167</v>
       </c>
@@ -4169,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>41167</v>
       </c>
@@ -4232,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>41167</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>41167</v>
       </c>
@@ -4358,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>41167</v>
       </c>
@@ -4421,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>41168</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>41168</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>41168</v>
       </c>
@@ -4610,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>41168</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>41168</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>41168</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>41169</v>
       </c>
@@ -4862,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>41169</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>41169</v>
       </c>
@@ -4988,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>41169</v>
       </c>
@@ -5051,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>41169</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>41169</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>41170</v>
       </c>
@@ -5240,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>41170</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>41170</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>41170</v>
       </c>
@@ -5429,7 +5434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>41170</v>
       </c>
@@ -5492,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>41170</v>
       </c>
@@ -5555,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>41171</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>41171</v>
       </c>
@@ -5681,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>41171</v>
       </c>
@@ -5744,7 +5749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>41171</v>
       </c>
@@ -5807,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>41171</v>
       </c>
@@ -5870,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>41171</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>41172</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>41172</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>41172</v>
       </c>
@@ -6120,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>41172</v>
       </c>
@@ -6182,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>41172</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>41172</v>
       </c>
